--- a/school_schedule.xlsx
+++ b/school_schedule.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/muhammadsabra/Documents/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/muhammadsabra/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02347E83-6B85-0A41-ABA3-C70CBDC4281E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1A9EFCB-3B73-6949-8F0D-1D4979319576}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2780" yWindow="1580" windowWidth="28040" windowHeight="17180" xr2:uid="{E3294044-999D-214F-905D-F837A84CDBAF}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="308" uniqueCount="81">
   <si>
     <t>Teacher_Name</t>
   </si>
@@ -647,7 +647,7 @@
   <dimension ref="A1:K28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H30" sqref="H30"/>
+      <selection activeCell="N14" sqref="N14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -951,6 +951,12 @@
       <c r="E9" s="2" t="s">
         <v>52</v>
       </c>
+      <c r="F9" t="s">
+        <v>42</v>
+      </c>
+      <c r="G9" t="s">
+        <v>42</v>
+      </c>
       <c r="H9" t="s">
         <v>42</v>
       </c>
@@ -974,44 +980,131 @@
       <c r="C10" s="2" t="s">
         <v>51</v>
       </c>
+      <c r="D10" t="s">
+        <v>42</v>
+      </c>
+      <c r="E10" t="s">
+        <v>42</v>
+      </c>
       <c r="F10" s="2" t="s">
         <v>50</v>
       </c>
       <c r="G10" s="2" t="s">
         <v>50</v>
+      </c>
+      <c r="H10" t="s">
+        <v>42</v>
+      </c>
+      <c r="I10" t="s">
+        <v>42</v>
+      </c>
+      <c r="J10" t="s">
+        <v>42</v>
+      </c>
+      <c r="K10" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
         <v>21</v>
       </c>
+      <c r="B11" t="s">
+        <v>42</v>
+      </c>
       <c r="C11" s="2" t="s">
         <v>53</v>
       </c>
       <c r="D11" s="2" t="s">
         <v>53</v>
+      </c>
+      <c r="E11" t="s">
+        <v>42</v>
+      </c>
+      <c r="F11" t="s">
+        <v>42</v>
+      </c>
+      <c r="G11" t="s">
+        <v>42</v>
+      </c>
+      <c r="H11" t="s">
+        <v>42</v>
+      </c>
+      <c r="I11" t="s">
+        <v>42</v>
+      </c>
+      <c r="J11" t="s">
+        <v>42</v>
+      </c>
+      <c r="K11" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
         <v>22</v>
       </c>
+      <c r="B12" t="s">
+        <v>42</v>
+      </c>
+      <c r="C12" t="s">
+        <v>42</v>
+      </c>
       <c r="D12" s="2" t="s">
         <v>54</v>
       </c>
       <c r="E12" s="2" t="s">
         <v>54</v>
+      </c>
+      <c r="F12" t="s">
+        <v>42</v>
+      </c>
+      <c r="G12" t="s">
+        <v>42</v>
+      </c>
+      <c r="H12" t="s">
+        <v>42</v>
+      </c>
+      <c r="I12" t="s">
+        <v>42</v>
+      </c>
+      <c r="J12" t="s">
+        <v>42</v>
+      </c>
+      <c r="K12" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
         <v>23</v>
       </c>
+      <c r="B13" t="s">
+        <v>42</v>
+      </c>
+      <c r="C13" t="s">
+        <v>42</v>
+      </c>
       <c r="D13" s="2" t="s">
         <v>55</v>
       </c>
       <c r="E13" s="2" t="s">
         <v>55</v>
+      </c>
+      <c r="F13" t="s">
+        <v>42</v>
+      </c>
+      <c r="G13" t="s">
+        <v>42</v>
+      </c>
+      <c r="H13" t="s">
+        <v>42</v>
+      </c>
+      <c r="I13" t="s">
+        <v>42</v>
+      </c>
+      <c r="J13" t="s">
+        <v>42</v>
       </c>
       <c r="K13" s="2" t="s">
         <v>56</v>
@@ -1027,33 +1120,99 @@
       <c r="C14" s="2" t="s">
         <v>57</v>
       </c>
+      <c r="D14" t="s">
+        <v>42</v>
+      </c>
       <c r="E14" s="2" t="s">
         <v>58</v>
       </c>
       <c r="F14" s="2" t="s">
         <v>58</v>
+      </c>
+      <c r="G14" t="s">
+        <v>42</v>
+      </c>
+      <c r="H14" t="s">
+        <v>42</v>
+      </c>
+      <c r="I14" t="s">
+        <v>42</v>
+      </c>
+      <c r="J14" t="s">
+        <v>42</v>
+      </c>
+      <c r="K14" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
         <v>25</v>
       </c>
+      <c r="B15" t="s">
+        <v>42</v>
+      </c>
       <c r="C15" s="2" t="s">
         <v>59</v>
       </c>
       <c r="D15" s="2" t="s">
         <v>59</v>
+      </c>
+      <c r="E15" t="s">
+        <v>42</v>
+      </c>
+      <c r="F15" t="s">
+        <v>42</v>
+      </c>
+      <c r="G15" t="s">
+        <v>42</v>
+      </c>
+      <c r="H15" t="s">
+        <v>42</v>
+      </c>
+      <c r="I15" t="s">
+        <v>42</v>
+      </c>
+      <c r="J15" t="s">
+        <v>42</v>
+      </c>
+      <c r="K15" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
         <v>26</v>
       </c>
+      <c r="B16" t="s">
+        <v>42</v>
+      </c>
+      <c r="C16" t="s">
+        <v>42</v>
+      </c>
       <c r="D16" s="2" t="s">
         <v>60</v>
       </c>
       <c r="E16" s="2" t="s">
         <v>60</v>
+      </c>
+      <c r="F16" t="s">
+        <v>42</v>
+      </c>
+      <c r="G16" t="s">
+        <v>42</v>
+      </c>
+      <c r="H16" t="s">
+        <v>42</v>
+      </c>
+      <c r="I16" t="s">
+        <v>42</v>
+      </c>
+      <c r="J16" t="s">
+        <v>42</v>
+      </c>
+      <c r="K16" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.2">
@@ -1066,11 +1225,29 @@
       <c r="C17" s="2" t="s">
         <v>61</v>
       </c>
+      <c r="D17" t="s">
+        <v>42</v>
+      </c>
       <c r="E17" s="2" t="s">
         <v>62</v>
       </c>
       <c r="F17" s="2" t="s">
         <v>62</v>
+      </c>
+      <c r="G17" t="s">
+        <v>42</v>
+      </c>
+      <c r="H17" t="s">
+        <v>42</v>
+      </c>
+      <c r="I17" t="s">
+        <v>42</v>
+      </c>
+      <c r="J17" t="s">
+        <v>42</v>
+      </c>
+      <c r="K17" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.2">
@@ -1089,11 +1266,35 @@
       <c r="E18" s="2" t="s">
         <v>64</v>
       </c>
+      <c r="F18" t="s">
+        <v>42</v>
+      </c>
+      <c r="G18" t="s">
+        <v>42</v>
+      </c>
+      <c r="H18" t="s">
+        <v>42</v>
+      </c>
+      <c r="I18" t="s">
+        <v>42</v>
+      </c>
+      <c r="J18" t="s">
+        <v>42</v>
+      </c>
+      <c r="K18" t="s">
+        <v>42</v>
+      </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>29</v>
       </c>
+      <c r="B19" t="s">
+        <v>42</v>
+      </c>
+      <c r="C19" t="s">
+        <v>42</v>
+      </c>
       <c r="D19" s="2" t="s">
         <v>65</v>
       </c>
@@ -1105,6 +1306,18 @@
       </c>
       <c r="G19" s="2" t="s">
         <v>66</v>
+      </c>
+      <c r="H19" t="s">
+        <v>42</v>
+      </c>
+      <c r="I19" t="s">
+        <v>42</v>
+      </c>
+      <c r="J19" t="s">
+        <v>42</v>
+      </c>
+      <c r="K19" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.2">
@@ -1123,6 +1336,21 @@
       <c r="E20" s="2" t="s">
         <v>68</v>
       </c>
+      <c r="F20" t="s">
+        <v>42</v>
+      </c>
+      <c r="G20" t="s">
+        <v>42</v>
+      </c>
+      <c r="H20" t="s">
+        <v>42</v>
+      </c>
+      <c r="I20" t="s">
+        <v>42</v>
+      </c>
+      <c r="J20" t="s">
+        <v>42</v>
+      </c>
       <c r="K20" s="2" t="s">
         <v>69</v>
       </c>
@@ -1143,16 +1371,58 @@
       <c r="E21" s="2" t="s">
         <v>72</v>
       </c>
+      <c r="F21" t="s">
+        <v>42</v>
+      </c>
+      <c r="G21" t="s">
+        <v>42</v>
+      </c>
+      <c r="H21" t="s">
+        <v>42</v>
+      </c>
+      <c r="I21" t="s">
+        <v>42</v>
+      </c>
+      <c r="J21" t="s">
+        <v>42</v>
+      </c>
+      <c r="K21" t="s">
+        <v>42</v>
+      </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>32</v>
       </c>
+      <c r="B22" t="s">
+        <v>42</v>
+      </c>
       <c r="C22" s="2" t="s">
         <v>70</v>
       </c>
       <c r="D22" s="2" t="s">
         <v>70</v>
+      </c>
+      <c r="E22" t="s">
+        <v>42</v>
+      </c>
+      <c r="F22" t="s">
+        <v>42</v>
+      </c>
+      <c r="G22" t="s">
+        <v>42</v>
+      </c>
+      <c r="H22" t="s">
+        <v>42</v>
+      </c>
+      <c r="I22" t="s">
+        <v>42</v>
+      </c>
+      <c r="J22" t="s">
+        <v>42</v>
+      </c>
+      <c r="K22" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.2">
@@ -1165,17 +1435,41 @@
       <c r="C23" s="2" t="s">
         <v>73</v>
       </c>
+      <c r="D23" t="s">
+        <v>42</v>
+      </c>
       <c r="E23" s="2" t="s">
         <v>74</v>
       </c>
       <c r="F23" s="2" t="s">
         <v>74</v>
+      </c>
+      <c r="G23" t="s">
+        <v>42</v>
+      </c>
+      <c r="H23" t="s">
+        <v>42</v>
+      </c>
+      <c r="I23" t="s">
+        <v>42</v>
+      </c>
+      <c r="J23" t="s">
+        <v>42</v>
+      </c>
+      <c r="K23" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>34</v>
       </c>
+      <c r="B24" t="s">
+        <v>42</v>
+      </c>
+      <c r="C24" t="s">
+        <v>42</v>
+      </c>
       <c r="D24" s="2" t="s">
         <v>75</v>
       </c>
@@ -1187,6 +1481,18 @@
       </c>
       <c r="G24" s="2" t="s">
         <v>76</v>
+      </c>
+      <c r="H24" t="s">
+        <v>42</v>
+      </c>
+      <c r="I24" t="s">
+        <v>42</v>
+      </c>
+      <c r="J24" t="s">
+        <v>42</v>
+      </c>
+      <c r="K24" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.2">
@@ -1199,11 +1505,29 @@
       <c r="C25" s="2" t="s">
         <v>77</v>
       </c>
+      <c r="D25" t="s">
+        <v>42</v>
+      </c>
       <c r="E25" s="2" t="s">
         <v>69</v>
       </c>
       <c r="F25" s="2" t="s">
         <v>69</v>
+      </c>
+      <c r="G25" t="s">
+        <v>42</v>
+      </c>
+      <c r="H25" t="s">
+        <v>42</v>
+      </c>
+      <c r="I25" t="s">
+        <v>42</v>
+      </c>
+      <c r="J25" t="s">
+        <v>42</v>
+      </c>
+      <c r="K25" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.2">
@@ -1216,14 +1540,29 @@
       <c r="C26" s="2" t="s">
         <v>56</v>
       </c>
+      <c r="D26" t="s">
+        <v>42</v>
+      </c>
       <c r="E26" s="2" t="s">
         <v>78</v>
       </c>
       <c r="F26" s="2" t="s">
         <v>78</v>
       </c>
+      <c r="G26" t="s">
+        <v>42</v>
+      </c>
+      <c r="H26" t="s">
+        <v>42</v>
+      </c>
       <c r="I26" s="2" t="s">
         <v>56</v>
+      </c>
+      <c r="J26" t="s">
+        <v>42</v>
+      </c>
+      <c r="K26" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.2">
@@ -1242,16 +1581,49 @@
       <c r="E27" s="2" t="s">
         <v>80</v>
       </c>
+      <c r="F27" t="s">
+        <v>42</v>
+      </c>
+      <c r="G27" t="s">
+        <v>42</v>
+      </c>
+      <c r="H27" t="s">
+        <v>42</v>
+      </c>
+      <c r="I27" t="s">
+        <v>42</v>
+      </c>
+      <c r="J27" t="s">
+        <v>42</v>
+      </c>
+      <c r="K27" t="s">
+        <v>42</v>
+      </c>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>20</v>
       </c>
+      <c r="B28" t="s">
+        <v>42</v>
+      </c>
+      <c r="C28" t="s">
+        <v>42</v>
+      </c>
+      <c r="D28" t="s">
+        <v>42</v>
+      </c>
       <c r="E28" s="2" t="s">
         <v>53</v>
       </c>
+      <c r="F28" t="s">
+        <v>42</v>
+      </c>
       <c r="G28" s="2" t="s">
         <v>40</v>
+      </c>
+      <c r="H28" t="s">
+        <v>42</v>
       </c>
       <c r="I28" t="s">
         <v>39</v>
